--- a/biology/Zoologie/Hexapopha_reimoseri/Hexapopha_reimoseri.xlsx
+++ b/biology/Zoologie/Hexapopha_reimoseri/Hexapopha_reimoseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hexapopha reimoseri est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hexapopha reimoseri est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Costa Rica[1]. Elle se rencontre dans les provinces de Limón et de Heredia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Costa Rica. Elle se rencontre dans les provinces de Limón et de Heredia.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,9 mm[3].
-Le mâle décrit par Platnick, Berniker et Víquez en 2014 mesure 1,54 mm et la femelle 1,83 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,9 mm.
+Le mâle décrit par Platnick, Berniker et Víquez en 2014 mesure 1,54 mm et la femelle 1,83 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Xestaspis reimoseri par Fage en 1938. Elle est placée dans le genre Hexapopha par Platnick, Berniker et Víquez en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Xestaspis reimoseri par Fage en 1938. Elle est placée dans le genre Hexapopha par Platnick, Berniker et Víquez en 2014.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eduard Reimoser[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eduard Reimoser.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fage, 1938 : « Quelques arachnides provenant de fourmilières ou de termitières du Costa Rica. » Bulletin du Muséum National d'Histoire Naturelle, sér. 2, vol. 10, p. 369-376.</t>
         </is>
